--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alexuuni-my.sharepoint.com/personal/es-abdullahm_abdullah2025_alexu_edu_eg/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yahya\OneDrive\Desktop\coding\DSA_RB_AVL_DICT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{A84B72D3-96D0-4DA7-834D-73C5BBDCB6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC9F06D-86B0-4397-91B7-826AFC1F18B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EBD3484A-4C3A-489D-A9CD-689ED1423BF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EBD3484A-4C3A-489D-A9CD-689ED1423BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,52 +869,52 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6</c:v>
@@ -923,22 +923,22 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7</c:v>
@@ -947,46 +947,46 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>8</c:v>
@@ -995,22 +995,22 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>8</c:v>
@@ -1019,22 +1019,22 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>9</c:v>
@@ -1043,94 +1043,94 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>10</c:v>
@@ -1139,94 +1139,94 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>11</c:v>
@@ -1235,190 +1235,190 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="123">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="134">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="124">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="135">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="179">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="183">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>12</c:v>
@@ -1427,37 +1427,37 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10581,11 +10581,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9497D4-591E-49CF-BC49-5C05C632FE4A}">
   <dimension ref="A1:AK403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="B1" t="s">
@@ -10688,7 +10691,7 @@
         <v>1947100</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10744,7 +10747,7 @@
         <v>257800</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -10856,7 +10859,7 @@
         <v>45500</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -10968,7 +10971,7 @@
         <v>40700</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -11080,7 +11083,7 @@
         <v>41200</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -11192,7 +11195,7 @@
         <v>43600</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -11304,7 +11307,7 @@
         <v>39900</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -11416,7 +11419,7 @@
         <v>57600</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -11472,7 +11475,7 @@
         <v>43700</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -11584,7 +11587,7 @@
         <v>34500</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>17</v>
@@ -11696,7 +11699,7 @@
         <v>48200</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>19</v>
@@ -11864,7 +11867,7 @@
         <v>39100</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -11920,7 +11923,7 @@
         <v>48900</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -12032,7 +12035,7 @@
         <v>43100</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>25</v>
@@ -12144,7 +12147,7 @@
         <v>61900</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>27</v>
@@ -12312,7 +12315,7 @@
         <v>43900</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -12368,7 +12371,7 @@
         <v>63000</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>31</v>
@@ -12424,7 +12427,7 @@
         <v>45100</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>32</v>
@@ -12480,7 +12483,7 @@
         <v>87900</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>33</v>
@@ -12592,7 +12595,7 @@
         <v>68100</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>35</v>
@@ -12760,7 +12763,7 @@
         <v>60200</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>38</v>
@@ -12816,7 +12819,7 @@
         <v>42500</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>39</v>
@@ -12928,7 +12931,7 @@
         <v>62400</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>41</v>
@@ -13040,7 +13043,7 @@
         <v>47400</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>43</v>
@@ -13208,7 +13211,7 @@
         <v>43500</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>46</v>
@@ -13264,7 +13267,7 @@
         <v>43000</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>47</v>
@@ -13320,7 +13323,7 @@
         <v>36500</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>48</v>
@@ -13376,7 +13379,7 @@
         <v>39100</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>49</v>
@@ -13488,7 +13491,7 @@
         <v>31400</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>51</v>
@@ -13656,7 +13659,7 @@
         <v>65800</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>54</v>
@@ -13712,7 +13715,7 @@
         <v>56700</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58">
         <v>55</v>
@@ -13824,7 +13827,7 @@
         <v>45100</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>57</v>
@@ -13936,7 +13939,7 @@
         <v>45900</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62">
         <v>59</v>
@@ -14104,7 +14107,7 @@
         <v>44600</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>62</v>
@@ -14160,7 +14163,7 @@
         <v>44600</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66">
         <v>63</v>
@@ -14216,7 +14219,7 @@
         <v>40100</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C67">
         <v>64</v>
@@ -14272,7 +14275,7 @@
         <v>44700</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <v>65</v>
@@ -14328,7 +14331,7 @@
         <v>40100</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>66</v>
@@ -14384,7 +14387,7 @@
         <v>41600</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C70">
         <v>67</v>
@@ -14440,7 +14443,7 @@
         <v>44000</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <v>68</v>
@@ -14496,7 +14499,7 @@
         <v>44000</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72">
         <v>69</v>
@@ -14608,7 +14611,7 @@
         <v>39800</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C74">
         <v>71</v>
@@ -14664,7 +14667,7 @@
         <v>45300</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75">
         <v>72</v>
@@ -14720,7 +14723,7 @@
         <v>59300</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>73</v>
@@ -14776,7 +14779,7 @@
         <v>44900</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>74</v>
@@ -14832,7 +14835,7 @@
         <v>47000</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>75</v>
@@ -14888,7 +14891,7 @@
         <v>40900</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>76</v>
@@ -14944,7 +14947,7 @@
         <v>47200</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <v>77</v>
@@ -15056,7 +15059,7 @@
         <v>47000</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C82">
         <v>79</v>
@@ -15112,7 +15115,7 @@
         <v>39600</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C83">
         <v>80</v>
@@ -15168,7 +15171,7 @@
         <v>46500</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C84">
         <v>81</v>
@@ -15224,7 +15227,7 @@
         <v>41400</v>
       </c>
       <c r="B85">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85">
         <v>82</v>
@@ -15280,7 +15283,7 @@
         <v>42400</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C86">
         <v>83</v>
@@ -15336,7 +15339,7 @@
         <v>43300</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <v>84</v>
@@ -15392,7 +15395,7 @@
         <v>48300</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88">
         <v>85</v>
@@ -15504,7 +15507,7 @@
         <v>48900</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C90">
         <v>87</v>
@@ -15560,7 +15563,7 @@
         <v>44700</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91">
         <v>88</v>
@@ -15616,7 +15619,7 @@
         <v>47800</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <v>89</v>
@@ -15728,7 +15731,7 @@
         <v>40300</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94">
         <v>91</v>
@@ -15896,7 +15899,7 @@
         <v>38100</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97">
         <v>94</v>
@@ -15952,7 +15955,7 @@
         <v>43400</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C98">
         <v>95</v>
@@ -16008,7 +16011,7 @@
         <v>35200</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C99">
         <v>96</v>
@@ -16064,7 +16067,7 @@
         <v>61600</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C100">
         <v>97</v>
@@ -16120,7 +16123,7 @@
         <v>47300</v>
       </c>
       <c r="B101">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101">
         <v>98</v>
@@ -16176,7 +16179,7 @@
         <v>40200</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C102">
         <v>99</v>
@@ -16232,7 +16235,7 @@
         <v>35500</v>
       </c>
       <c r="B103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C103">
         <v>100</v>
@@ -16288,7 +16291,7 @@
         <v>30300</v>
       </c>
       <c r="B104">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104">
         <v>101</v>
@@ -16400,7 +16403,7 @@
         <v>96700</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C106">
         <v>103</v>
@@ -16456,7 +16459,7 @@
         <v>80700</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C107">
         <v>104</v>
@@ -16512,7 +16515,7 @@
         <v>33600</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C108">
         <v>105</v>
@@ -16568,7 +16571,7 @@
         <v>24500</v>
       </c>
       <c r="B109">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C109">
         <v>106</v>
@@ -16624,7 +16627,7 @@
         <v>48000</v>
       </c>
       <c r="B110">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C110">
         <v>107</v>
@@ -16680,7 +16683,7 @@
         <v>27600</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C111">
         <v>108</v>
@@ -16736,7 +16739,7 @@
         <v>29400</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C112">
         <v>109</v>
@@ -16848,7 +16851,7 @@
         <v>33000</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C114">
         <v>111</v>
@@ -16904,7 +16907,7 @@
         <v>30100</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C115">
         <v>112</v>
@@ -16960,7 +16963,7 @@
         <v>37000</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C116">
         <v>113</v>
@@ -17016,7 +17019,7 @@
         <v>29200</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C117">
         <v>114</v>
@@ -17072,7 +17075,7 @@
         <v>34900</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C118">
         <v>115</v>
@@ -17128,7 +17131,7 @@
         <v>30700</v>
       </c>
       <c r="B119">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C119">
         <v>116</v>
@@ -17184,7 +17187,7 @@
         <v>36200</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C120">
         <v>117</v>
@@ -17296,7 +17299,7 @@
         <v>29500</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C122">
         <v>119</v>
@@ -17352,7 +17355,7 @@
         <v>44500</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C123">
         <v>120</v>
@@ -17408,7 +17411,7 @@
         <v>30700</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C124">
         <v>121</v>
@@ -17520,7 +17523,7 @@
         <v>32600</v>
       </c>
       <c r="B126">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C126">
         <v>123</v>
@@ -17688,7 +17691,7 @@
         <v>33700</v>
       </c>
       <c r="B129">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129">
         <v>126</v>
@@ -17744,7 +17747,7 @@
         <v>38000</v>
       </c>
       <c r="B130">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C130">
         <v>127</v>
@@ -17800,7 +17803,7 @@
         <v>35600</v>
       </c>
       <c r="B131">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C131">
         <v>128</v>
@@ -17856,7 +17859,7 @@
         <v>34500</v>
       </c>
       <c r="B132">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C132">
         <v>129</v>
@@ -17912,7 +17915,7 @@
         <v>32000</v>
       </c>
       <c r="B133">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C133">
         <v>130</v>
@@ -17968,7 +17971,7 @@
         <v>72000</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C134">
         <v>131</v>
@@ -18024,7 +18027,7 @@
         <v>32100</v>
       </c>
       <c r="B135">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C135">
         <v>132</v>
@@ -18080,7 +18083,7 @@
         <v>35900</v>
       </c>
       <c r="B136">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C136">
         <v>133</v>
@@ -18136,7 +18139,7 @@
         <v>30900</v>
       </c>
       <c r="B137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C137">
         <v>134</v>
@@ -18192,7 +18195,7 @@
         <v>35200</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C138">
         <v>135</v>
@@ -18248,7 +18251,7 @@
         <v>27700</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C139">
         <v>136</v>
@@ -18304,7 +18307,7 @@
         <v>36300</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C140">
         <v>137</v>
@@ -18360,7 +18363,7 @@
         <v>37900</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C141">
         <v>138</v>
@@ -18416,7 +18419,7 @@
         <v>38100</v>
       </c>
       <c r="B142">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C142">
         <v>139</v>
@@ -18472,7 +18475,7 @@
         <v>67600</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C143">
         <v>140</v>
@@ -18528,7 +18531,7 @@
         <v>31000</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C144">
         <v>141</v>
@@ -18584,7 +18587,7 @@
         <v>27300</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145">
         <v>142</v>
@@ -18640,7 +18643,7 @@
         <v>34900</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C146">
         <v>143</v>
@@ -18696,7 +18699,7 @@
         <v>27500</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C147">
         <v>144</v>
@@ -18752,7 +18755,7 @@
         <v>30900</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C148">
         <v>145</v>
@@ -18808,7 +18811,7 @@
         <v>28500</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C149">
         <v>146</v>
@@ -18864,7 +18867,7 @@
         <v>38200</v>
       </c>
       <c r="B150">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C150">
         <v>147</v>
@@ -18920,7 +18923,7 @@
         <v>32900</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C151">
         <v>148</v>
@@ -18976,7 +18979,7 @@
         <v>33100</v>
       </c>
       <c r="B152">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C152">
         <v>149</v>
@@ -19032,7 +19035,7 @@
         <v>30300</v>
       </c>
       <c r="B153">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C153">
         <v>150</v>
@@ -19088,7 +19091,7 @@
         <v>34300</v>
       </c>
       <c r="B154">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C154">
         <v>151</v>
@@ -19144,7 +19147,7 @@
         <v>30000</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C155">
         <v>152</v>
@@ -19200,7 +19203,7 @@
         <v>32100</v>
       </c>
       <c r="B156">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C156">
         <v>153</v>
@@ -19256,7 +19259,7 @@
         <v>29800</v>
       </c>
       <c r="B157">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C157">
         <v>154</v>
@@ -19312,7 +19315,7 @@
         <v>34800</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C158">
         <v>155</v>
@@ -19368,7 +19371,7 @@
         <v>32900</v>
       </c>
       <c r="B159">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159">
         <v>156</v>
@@ -19424,7 +19427,7 @@
         <v>30900</v>
       </c>
       <c r="B160">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C160">
         <v>157</v>
@@ -19536,7 +19539,7 @@
         <v>35400</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C162">
         <v>159</v>
@@ -19592,7 +19595,7 @@
         <v>28900</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C163">
         <v>160</v>
@@ -19648,7 +19651,7 @@
         <v>51000</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C164">
         <v>161</v>
@@ -19704,7 +19707,7 @@
         <v>31100</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C165">
         <v>162</v>
@@ -19760,7 +19763,7 @@
         <v>33800</v>
       </c>
       <c r="B166">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C166">
         <v>163</v>
@@ -19816,7 +19819,7 @@
         <v>34600</v>
       </c>
       <c r="B167">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C167">
         <v>164</v>
@@ -19872,7 +19875,7 @@
         <v>43500</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C168">
         <v>165</v>
@@ -19928,7 +19931,7 @@
         <v>28700</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C169">
         <v>166</v>
@@ -19984,7 +19987,7 @@
         <v>34500</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C170">
         <v>167</v>
@@ -20040,7 +20043,7 @@
         <v>29800</v>
       </c>
       <c r="B171">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C171">
         <v>168</v>
@@ -20096,7 +20099,7 @@
         <v>35300</v>
       </c>
       <c r="B172">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C172">
         <v>169</v>
@@ -20152,7 +20155,7 @@
         <v>36200</v>
       </c>
       <c r="B173">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C173">
         <v>170</v>
@@ -20208,7 +20211,7 @@
         <v>33500</v>
       </c>
       <c r="B174">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C174">
         <v>171</v>
@@ -20264,7 +20267,7 @@
         <v>31100</v>
       </c>
       <c r="B175">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C175">
         <v>172</v>
@@ -20320,7 +20323,7 @@
         <v>32900</v>
       </c>
       <c r="B176">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C176">
         <v>173</v>
@@ -20432,7 +20435,7 @@
         <v>36100</v>
       </c>
       <c r="B178">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C178">
         <v>175</v>
@@ -20488,7 +20491,7 @@
         <v>34800</v>
       </c>
       <c r="B179">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C179">
         <v>176</v>
@@ -20544,7 +20547,7 @@
         <v>33100</v>
       </c>
       <c r="B180">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C180">
         <v>177</v>
@@ -20600,7 +20603,7 @@
         <v>30300</v>
       </c>
       <c r="B181">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C181">
         <v>178</v>
@@ -20656,7 +20659,7 @@
         <v>36900</v>
       </c>
       <c r="B182">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C182">
         <v>179</v>
@@ -20712,7 +20715,7 @@
         <v>30700</v>
       </c>
       <c r="B183">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C183">
         <v>180</v>
@@ -20768,7 +20771,7 @@
         <v>45500</v>
       </c>
       <c r="B184">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C184">
         <v>181</v>
@@ -20880,7 +20883,7 @@
         <v>32300</v>
       </c>
       <c r="B186">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C186">
         <v>183</v>
@@ -20936,7 +20939,7 @@
         <v>60400</v>
       </c>
       <c r="B187">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C187">
         <v>184</v>
@@ -20992,7 +20995,7 @@
         <v>27500</v>
       </c>
       <c r="B188">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C188">
         <v>185</v>
@@ -21104,7 +21107,7 @@
         <v>63100</v>
       </c>
       <c r="B190">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C190">
         <v>187</v>
@@ -21272,7 +21275,7 @@
         <v>27500</v>
       </c>
       <c r="B193">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C193">
         <v>190</v>
@@ -21328,7 +21331,7 @@
         <v>32200</v>
       </c>
       <c r="B194">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C194">
         <v>191</v>
@@ -21384,7 +21387,7 @@
         <v>26600</v>
       </c>
       <c r="B195">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C195">
         <v>192</v>
@@ -21440,7 +21443,7 @@
         <v>27400</v>
       </c>
       <c r="B196">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C196">
         <v>193</v>
@@ -21496,7 +21499,7 @@
         <v>29900</v>
       </c>
       <c r="B197">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C197">
         <v>194</v>
@@ -21552,7 +21555,7 @@
         <v>30900</v>
       </c>
       <c r="B198">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C198">
         <v>195</v>
@@ -21608,7 +21611,7 @@
         <v>28100</v>
       </c>
       <c r="B199">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C199">
         <v>196</v>
@@ -21664,7 +21667,7 @@
         <v>64900</v>
       </c>
       <c r="B200">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C200">
         <v>197</v>
@@ -21720,7 +21723,7 @@
         <v>31600</v>
       </c>
       <c r="B201">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C201">
         <v>198</v>
@@ -21776,7 +21779,7 @@
         <v>28500</v>
       </c>
       <c r="B202">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C202">
         <v>199</v>
@@ -21832,7 +21835,7 @@
         <v>30800</v>
       </c>
       <c r="B203">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C203">
         <v>200</v>
